--- a/medicine/Enfance/Andréa_del_Fuego/Andréa_del_Fuego.xlsx
+++ b/medicine/Enfance/Andréa_del_Fuego/Andréa_del_Fuego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9a_del_Fuego</t>
+          <t>Andréa_del_Fuego</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andréa del Fuego, de son vrai nom Andréa Fátima dos Santos (São Paulo, 1975), est une écrivaine brésilienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9a_del_Fuego</t>
+          <t>Andréa_del_Fuego</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle  a reçu le Prix José Saramago en 2011 pour son premier roman Os Malaquias.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9a_del_Fuego</t>
+          <t>Andréa_del_Fuego</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,24 +558,131 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-2013 - As Miniaturas (Companhia das Letras)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2013 - As Miniaturas (Companhia das Letras)
 traduit en 2018, Les miniatures (éditions de l'Aube), Éditions de l'Aube, 2018, 194 pages  (ISBN 978-2-815-91496-3)
 2010 - Os Malaquias (Língua geral)
-traduit par Cécile Lombard, Les Malaquias, Éditions de l'Aube, 2015, 220 pages  (ISBN 978-2-815-91312-6)
-Contes
-2009 - Nego fogo (Dulcinéia Catadora)
+traduit par Cécile Lombard, Les Malaquias, Éditions de l'Aube, 2015, 220 pages  (ISBN 978-2-815-91312-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Andréa_del_Fuego</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9a_del_Fuego</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2009 - Nego fogo (Dulcinéia Catadora)
 2007 - Engano seu (Ed. O Nome da Rosa)
 2005 - Nego tudo (Fina Flor)
-2004 - Minto enquanto posso (Ed. O Nome da Rosa)
-Littérature jeunesse
-2007 - Blade Runner (Mojo Books)
+2004 - Minto enquanto posso (Ed. O Nome da Rosa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Andréa_del_Fuego</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9a_del_Fuego</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2007 - Blade Runner (Mojo Books)
 2008 - Sociedade da Caveira de Cristal (Scipione)
 2008 - Quase caio (Escala Educacional)
 2008 - Crônica (Editora Escala Educacional)
-2010 - Irmãs de pelúcia (Scipione)
-Participations dans des anthologies
-Os cem menores contos brasileiros do século (Ateliê Editorial, Org. Marcelino Freire, 2004)
+2010 - Irmãs de pelúcia (Scipione)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Andréa_del_Fuego</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9a_del_Fuego</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Participations dans des anthologies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Os cem menores contos brasileiros do século (Ateliê Editorial, Org. Marcelino Freire, 2004)
 30 mulheres que estão fazendo a nova literatura brasileira (Editora Record Org. Luiz Ruffato, 2005)
 Geração zero zero (Editora Língua Geral, Org. Nelson de Oliveira, 2011)
 Escritores escritos (Editora Flaneur, Org. Victoria Saramago, 2010)
